--- a/data/trans_camb/P32-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.043360771561862</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.6745914480925536</v>
+        <v>-0.6745914480925539</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.95653754851486</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4236959573204659</v>
+        <v>0.06222394852767676</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5115594244493757</v>
+        <v>-0.2792175665167515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.58072671753671</v>
+        <v>1.881134876180987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.395134381153351</v>
+        <v>-4.148742403124942</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.75915876228856</v>
+        <v>-5.474229729714193</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.58484652508404</v>
+        <v>-4.586398671729071</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2563683437341848</v>
+        <v>-0.2254709426649618</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9056529037622607</v>
+        <v>-0.9059058727026096</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.251377089356129</v>
+        <v>1.255797085483644</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.41296141098764</v>
+        <v>5.981807881616859</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.552217779522939</v>
+        <v>5.823770758253941</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.445875399476074</v>
+        <v>9.480063658839679</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.740386356735927</v>
+        <v>1.80059071168164</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.464400459823502</v>
+        <v>1.42511285898735</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.789235905204732</v>
+        <v>1.886710125035795</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.045200279947311</v>
+        <v>4.066293572450638</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.641000161765421</v>
+        <v>3.790910639652101</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.188677526684986</v>
+        <v>7.23745228260914</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.5610682056259375</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3627621659048071</v>
+        <v>-0.3627621659048073</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.7266205836223665</v>
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.006659558047679506</v>
+        <v>-0.01352063100803002</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1609528206976938</v>
+        <v>-0.129180718525839</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3682231523148866</v>
+        <v>0.3591938463427906</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.109907764501913</v>
+        <v>-0.07804022785790275</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2935119640580726</v>
+        <v>-0.2847636363821276</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3289515440584539</v>
+        <v>0.2982429385607085</v>
       </c>
     </row>
     <row r="9">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.090025847664946</v>
+        <v>3.170827743951952</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.035138874784259</v>
+        <v>2.767291082052124</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.367677349433815</v>
+        <v>4.778783126698116</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>2.229594210951254</v>
+        <v>2.607503261448653</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.085715608996691</v>
+        <v>2.184150190983241</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.155006762987892</v>
+        <v>4.189085571801887</v>
       </c>
     </row>
     <row r="10">
@@ -848,7 +848,7 @@
         <v>2.236099768994015</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.247751120273586</v>
+        <v>3.247751120273587</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.620376155635365</v>
@@ -866,7 +866,7 @@
         <v>2.087834425170103</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.67050891464103</v>
+        <v>2.670508914641031</v>
       </c>
     </row>
     <row r="11">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.526574393464031</v>
+        <v>2.723044322871281</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7456336898738267</v>
+        <v>0.6521106501400769</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.347874105340291</v>
+        <v>1.384629438491248</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9729096472718916</v>
+        <v>-0.8631230153834527</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.138221362845535</v>
+        <v>0.2842370336818407</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.1724619693826478</v>
+        <v>-0.09282056447631795</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.873389247484662</v>
+        <v>1.759545977465747</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9093344038221253</v>
+        <v>0.7986227640841972</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.221602503869414</v>
+        <v>1.206726277369454</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.095931124171675</v>
+        <v>6.494217184804654</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.968879178682239</v>
+        <v>3.924537245471978</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.558453380825204</v>
+        <v>5.673126682904186</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.54803740144136</v>
+        <v>2.619425343386164</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.745801574734889</v>
+        <v>3.703377946874429</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.799723624022588</v>
+        <v>3.958743506438938</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.550978338688192</v>
+        <v>4.51809443077253</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.232235129109361</v>
+        <v>3.329636586061117</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.25266606756962</v>
+        <v>4.325210427714048</v>
       </c>
     </row>
     <row r="13">
@@ -953,7 +953,7 @@
         <v>0.7967731372488402</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.157247491809363</v>
+        <v>1.157247491809364</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3642193446128062</v>
@@ -971,7 +971,7 @@
         <v>0.8567883205552375</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.095901485490959</v>
+        <v>1.09590148549096</v>
       </c>
     </row>
     <row r="14">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.6623348983667667</v>
+        <v>0.691279536156891</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1907838207029889</v>
+        <v>0.1671265134621109</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3507738253634837</v>
+        <v>0.3688455033866107</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4300062644920575</v>
+        <v>-0.3750657891317903</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02908152579451964</v>
+        <v>0.08951087955863675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1583160203670955</v>
+        <v>-0.1470842162076443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5804917321622818</v>
+        <v>0.5475932912533843</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3125130201250216</v>
+        <v>0.234230141668065</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3911860988210468</v>
+        <v>0.363648629147925</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.907638624399107</v>
+        <v>2.938833031196242</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.960073755701099</v>
+        <v>1.810616065169461</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.447868332122233</v>
+        <v>2.599657990397471</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.758511877073483</v>
+        <v>2.92776828381182</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.148925702917752</v>
+        <v>4.591928866087289</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.546472495900106</v>
+        <v>4.145817900651704</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.427816713454666</v>
+        <v>2.265131503600811</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.743273983404916</v>
+        <v>1.653823902234715</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.197361892989013</v>
+        <v>2.163513428801505</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1062,7 @@
         <v>3.602561443334436</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.558744741117671</v>
+        <v>4.558744741117672</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.038143986479269</v>
@@ -1091,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8466142749655693</v>
+        <v>0.923427726494861</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4518758899647554</v>
+        <v>0.6746060471581111</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.558814364294604</v>
+        <v>1.345117995705735</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.01280455770197398</v>
+        <v>-0.2577852886316409</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8383666577438217</v>
+        <v>0.6424160509254557</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.326419054986607</v>
+        <v>1.317577188862423</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8333344248151229</v>
+        <v>0.7557529495328351</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.08976081670403</v>
+        <v>1.135251263385495</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.001880010137182</v>
+        <v>1.688519972090468</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.552914599334056</v>
+        <v>7.400435270407221</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.828699695429814</v>
+        <v>6.717050390286795</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.066724002308566</v>
+        <v>8.126215713352499</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.508540578680069</v>
+        <v>5.462332871531952</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.821643632597084</v>
+        <v>5.960500769018108</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.129515031057331</v>
+        <v>7.106943257777694</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.557346718569319</v>
+        <v>5.454714848639076</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.590420118903112</v>
+        <v>5.462785064026308</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.452385967595626</v>
+        <v>6.240683703778468</v>
       </c>
     </row>
     <row r="19">
@@ -1196,25 +1196,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06303169860768718</v>
+        <v>0.05865064694964681</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.008149113737581653</v>
+        <v>-0.01926116452473827</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.222978872986297</v>
+        <v>0.2338352158394825</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>0.1631922218572779</v>
+        <v>0.1167013274251549</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2513897004839306</v>
+        <v>0.3188914596079785</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.6185046872985835</v>
+        <v>0.4842586907605613</v>
       </c>
     </row>
     <row r="21">
@@ -1225,25 +1225,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.638105626554647</v>
+        <v>8.201589019177778</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>6.128722535765241</v>
+        <v>5.770683887636588</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>7.773260579163226</v>
+        <v>8.271787775685739</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>7.367148564014623</v>
+        <v>6.153414896499269</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>7.355688476768455</v>
+        <v>5.950329026809896</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>9.27192362457582</v>
+        <v>7.16431941460096</v>
       </c>
     </row>
     <row r="22">
@@ -1264,7 +1264,7 @@
         <v>2.501933568996054</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.791684930203328</v>
+        <v>3.791684930203326</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.6809121877644861</v>
@@ -1293,31 +1293,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.753638488741587</v>
+        <v>2.830057719735872</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.300308904096997</v>
+        <v>1.132639402294908</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.34858971880222</v>
+        <v>2.240893190711783</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.6316875585981321</v>
+        <v>-0.5690562346720659</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5533953737777275</v>
+        <v>0.3667932853120063</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5909144727868957</v>
+        <v>0.4695800689510359</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.871284833962919</v>
+        <v>1.819217569592855</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.227591971876861</v>
+        <v>1.290222881325085</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.936480155052171</v>
+        <v>2.019424168016515</v>
       </c>
     </row>
     <row r="24">
@@ -1328,31 +1328,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.479125340998394</v>
+        <v>5.449633486567023</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.773306627185685</v>
+        <v>3.786721927610301</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.456881502785627</v>
+        <v>5.318245453963553</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.003190431916776</v>
+        <v>1.929388322785774</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.300102608969636</v>
+        <v>3.0663970201987</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.749738880793646</v>
+        <v>3.835737411024728</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.932865960695976</v>
+        <v>3.963892488430158</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.159911347525355</v>
+        <v>3.105974677408922</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.295798775406233</v>
+        <v>4.227436307731539</v>
       </c>
     </row>
     <row r="25">
@@ -1398,31 +1398,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.7767656255128719</v>
+        <v>0.8463979338751757</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.346190833923217</v>
+        <v>0.3137880505210009</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.6945117232503736</v>
+        <v>0.6625150392693989</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3070694517829721</v>
+        <v>-0.2944288354083832</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1544367648515981</v>
+        <v>0.1004039176656736</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1433987720507356</v>
+        <v>0.1153691555256406</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6546269467326693</v>
+        <v>0.6504830186485776</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4382156040197691</v>
+        <v>0.4383597320282963</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6829601217749041</v>
+        <v>0.7221685023367274</v>
       </c>
     </row>
     <row r="27">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.389587222849887</v>
+        <v>2.419937641934904</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.710906417598338</v>
+        <v>1.657698906718479</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.373201568929735</v>
+        <v>2.412038173582537</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.322840084691677</v>
+        <v>2.158859278961776</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.657736767823812</v>
+        <v>3.284307900442177</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.946548994311447</v>
+        <v>3.947763237429496</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.997376486614642</v>
+        <v>1.993716575046744</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.631823087429559</v>
+        <v>1.56950182342798</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.210373940754231</v>
+        <v>2.14334091181397</v>
       </c>
     </row>
     <row r="28">
